--- a/Tuntilista.xlsx
+++ b/Tuntilista.xlsx
@@ -1,30 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21927"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://omaareena-my.sharepoint.com/personal/veeti_salminen_edu_tampere_fi/Documents/2019 Kesäprojekti/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="228" documentId="11_1A5732DACF72138F6E528457CFD12E01E5D2580B" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{15282CEA-79F2-4313-AE65-FF34C7DD2689}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Taul1" sheetId="1" r:id="rId1"/>
+    <sheet name="Tuntilista" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="27">
   <si>
     <t>TUNTILISTA</t>
   </si>
@@ -35,32 +42,86 @@
     <t>TEHTÄVÄ</t>
   </si>
   <si>
-    <t>AIKA</t>
+    <t>AIKA MINUUTTEINA</t>
+  </si>
+  <si>
+    <t>KESKEN</t>
+  </si>
+  <si>
+    <t>TEHTY</t>
+  </si>
+  <si>
+    <t>YHTEENSÄ MIN</t>
   </si>
   <si>
     <t>Tuntilista</t>
   </si>
   <si>
-    <t>KESKEN</t>
-  </si>
-  <si>
-    <t>TEHTY</t>
-  </si>
-  <si>
     <t>X</t>
   </si>
   <si>
-    <t>YHTEENSÄ MIN</t>
+    <t>Projektiesitys</t>
+  </si>
+  <si>
+    <t>Projektisuunnitelma</t>
   </si>
   <si>
     <t>YHTEENSÄ H</t>
+  </si>
+  <si>
+    <t>Projektin Suunnittelu</t>
+  </si>
+  <si>
+    <t>Projektin Suunittelu</t>
+  </si>
+  <si>
+    <t>Projektin aloittaminen(Koodaus)</t>
+  </si>
+  <si>
+    <t>Koodaus pelaajan mekaniikat</t>
+  </si>
+  <si>
+    <t>Koodaus vihollis mekaniikat</t>
+  </si>
+  <si>
+    <t>Koodaus ase mekaniikkat</t>
+  </si>
+  <si>
+    <t>Koodaus lisää vihollisia</t>
+  </si>
+  <si>
+    <t>Koodaus lisää aseita</t>
+  </si>
+  <si>
+    <t>Koodaus</t>
+  </si>
+  <si>
+    <t>Grafiikkojen tekeminen</t>
+  </si>
+  <si>
+    <t>Mapin suunnittelu (LVL 1)</t>
+  </si>
+  <si>
+    <t>Mapin Tekeminen (LVL 1)</t>
+  </si>
+  <si>
+    <t>Mapin suunnittelu (LVL 2)</t>
+  </si>
+  <si>
+    <t>Mapin Tekeminen (LVL 2)</t>
+  </si>
+  <si>
+    <t>Main Menun tekemine</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -148,7 +209,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -156,14 +217,16 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normaali" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -440,42 +503,42 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.85546875" customWidth="1"/>
-    <col min="2" max="2" width="23.28515625" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" customWidth="1"/>
     <col min="3" max="3" width="22.42578125" customWidth="1"/>
     <col min="4" max="4" width="8" customWidth="1"/>
     <col min="5" max="5" width="7" customWidth="1"/>
     <col min="7" max="7" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:13">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="9"/>
-    </row>
-    <row r="3" spans="1:13" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="8"/>
+    </row>
+    <row r="3" spans="1:13" ht="26.25">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
@@ -486,715 +549,1027 @@
         <v>3</v>
       </c>
       <c r="D4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="4">
         <v>43619</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C5" s="1">
         <v>10</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G5" s="6">
         <f>SUM(C5:C102)</f>
+        <v>4625</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="4">
+        <v>43619</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="1">
+        <v>30</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="4">
+        <v>43622</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
+      <c r="C7" s="1">
+        <v>40</v>
+      </c>
       <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
+      <c r="E7" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="G7" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="5"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="4">
+        <v>43626</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="1">
+        <v>120</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="E8" s="5"/>
-      <c r="G8" s="6">
+      <c r="G8" s="9">
         <f>G5/60</f>
-        <v>0.16666666666666666</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="5"/>
+        <v>77.083333333333329</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="4">
+        <v>43628</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="1">
+        <v>120</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="E9" s="5"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
+    <row r="10" spans="1:13">
+      <c r="A10" s="4">
+        <v>43629</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="1">
+        <v>60</v>
+      </c>
       <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="5"/>
+      <c r="E10" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="4">
+        <v>43629</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="1">
+        <v>180</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="E11" s="5"/>
-      <c r="M11" s="9"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="5"/>
+      <c r="M11" s="8"/>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="4">
+        <v>43630</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="1">
+        <v>180</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="E12" s="5"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="5"/>
+    <row r="13" spans="1:13">
+      <c r="A13" s="4">
+        <v>43631</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="1">
+        <v>180</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="E13" s="5"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="5"/>
+    <row r="14" spans="1:13">
+      <c r="A14" s="4">
+        <v>43634</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="1">
+        <v>60</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="E14" s="5"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="5"/>
+    <row r="15" spans="1:13">
+      <c r="A15" s="4">
+        <v>43635</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="1">
+        <v>240</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="E15" s="5"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="5"/>
+    <row r="16" spans="1:13">
+      <c r="A16" s="4">
+        <v>43636</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="1">
+        <v>60</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="E16" s="5"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="5"/>
+    <row r="17" spans="1:5">
+      <c r="A17" s="4">
+        <v>43639</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="1">
+        <v>120</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="E17" s="5"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="5"/>
+    <row r="18" spans="1:5">
+      <c r="A18" s="4">
+        <v>43641</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="1">
+        <v>120</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="E18" s="5"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="5"/>
+    <row r="19" spans="1:5">
+      <c r="A19" s="4">
+        <v>43642</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="1">
+        <v>120</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="E19" s="5"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="5"/>
+    <row r="20" spans="1:5">
+      <c r="A20" s="4">
+        <v>43644</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="1">
+        <v>180</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="E20" s="5"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="5"/>
+    <row r="21" spans="1:5">
+      <c r="A21" s="4">
+        <v>43649</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="1">
+        <v>120</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="E21" s="5"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="5"/>
+    <row r="22" spans="1:5">
+      <c r="A22" s="4">
+        <v>43650</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="1">
+        <v>120</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="E22" s="5"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
+    <row r="23" spans="1:5">
+      <c r="A23" s="4">
+        <v>43652</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="1">
+        <v>180</v>
+      </c>
       <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="5"/>
+      <c r="E23" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="4">
+        <v>43653</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24" s="1">
+        <v>180</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="E24" s="5"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="5"/>
+    <row r="25" spans="1:5">
+      <c r="A25" s="4">
+        <v>43653</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" s="1">
+        <v>300</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="E25" s="5"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
+    <row r="26" spans="1:5">
+      <c r="A26" s="4">
+        <v>43655</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="1">
+        <v>180</v>
+      </c>
       <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="5"/>
+      <c r="E26" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="4">
+        <v>43655</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27" s="1">
+        <v>60</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="E27" s="5"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="5"/>
+    <row r="28" spans="1:5">
+      <c r="A28" s="4">
+        <v>43656</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C28" s="1">
+        <v>120</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="E28" s="5"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="5"/>
+    <row r="29" spans="1:5">
+      <c r="A29" s="4">
+        <v>43658</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C29" s="1">
+        <v>260</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="E29" s="5"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="5"/>
+    <row r="30" spans="1:5">
+      <c r="A30" s="4">
+        <v>43659</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C30" s="1">
+        <v>60</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="E30" s="5"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="5"/>
+    <row r="31" spans="1:5">
+      <c r="A31" s="4">
+        <v>43659</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C31" s="1">
+        <v>60</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="E31" s="5"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="5"/>
+    <row r="32" spans="1:5">
+      <c r="A32" s="4">
+        <v>43661</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C32" s="1">
+        <v>120</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="E32" s="5"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="5"/>
+    <row r="33" spans="1:5">
+      <c r="A33" s="4">
+        <v>43662</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C33" s="1">
+        <v>120</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="E33" s="5"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="5"/>
+    <row r="34" spans="1:5">
+      <c r="A34" s="10">
+        <v>43663</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C34" s="1">
+        <v>120</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="E34" s="5"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="5"/>
+    <row r="35" spans="1:5">
+      <c r="A35" s="4">
+        <v>43664</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C35" s="1">
+        <v>180</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="E35" s="5"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="5"/>
+    <row r="36" spans="1:5">
+      <c r="A36" s="4">
+        <v>43666</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C36" s="1">
+        <v>240</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="E36" s="5"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="5"/>
+    <row r="37" spans="1:5">
+      <c r="A37" s="4">
+        <v>43668</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C37" s="1">
+        <v>60</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="E37" s="5"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="5"/>
+    <row r="38" spans="1:5">
+      <c r="A38" s="4">
+        <v>43669</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C38" s="1">
+        <v>60</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="E38" s="5"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
+    <row r="39" spans="1:5">
+      <c r="A39" s="4">
+        <v>43669</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C39" s="1">
+        <v>60</v>
+      </c>
       <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="5"/>
+      <c r="E39" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="4">
+        <v>43670</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C40" s="1">
+        <v>20</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="E40" s="5"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
+    <row r="41" spans="1:5">
+      <c r="A41" s="4">
+        <v>43674</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C41" s="1">
+        <v>35</v>
+      </c>
       <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="5"/>
+      <c r="E41" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="4">
+        <v>43674</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C42" s="1">
+        <v>30</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="E42" s="5"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="1"/>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="5"/>
+    <row r="43" spans="1:5">
+      <c r="A43" s="4">
+        <v>43675</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C43" s="1">
+        <v>60</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="E43" s="5"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="1"/>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="5"/>
+    <row r="44" spans="1:5">
+      <c r="A44" s="4">
+        <v>43675</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C44" s="1">
+        <v>60</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="E44" s="5"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="5"/>
       <c r="E45" s="5"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="5"/>
       <c r="E46" s="5"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="5"/>
       <c r="E47" s="5"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="5"/>
       <c r="E48" s="5"/>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="5"/>
       <c r="E49" s="5"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="5"/>
       <c r="E50" s="5"/>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="5"/>
       <c r="E51" s="5"/>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="5"/>
       <c r="E52" s="5"/>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="5"/>
       <c r="E53" s="5"/>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="5"/>
       <c r="E54" s="5"/>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="5"/>
       <c r="E55" s="5"/>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="5"/>
       <c r="E56" s="5"/>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="5"/>
       <c r="E57" s="5"/>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="5"/>
       <c r="E58" s="5"/>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="5"/>
       <c r="E59" s="5"/>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="5"/>
       <c r="E60" s="5"/>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="5"/>
       <c r="E61" s="5"/>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="5"/>
       <c r="E62" s="5"/>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="5"/>
       <c r="E63" s="5"/>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="5"/>
       <c r="E64" s="5"/>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="5"/>
       <c r="E65" s="5"/>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="5"/>
       <c r="E66" s="5"/>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="5"/>
       <c r="E67" s="5"/>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="5"/>
       <c r="E68" s="5"/>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="5"/>
       <c r="E69" s="5"/>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="5"/>
       <c r="E70" s="5"/>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="5"/>
       <c r="E71" s="5"/>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="5"/>
       <c r="E72" s="5"/>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="5"/>
       <c r="E73" s="5"/>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="5"/>
       <c r="E74" s="5"/>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="5"/>
       <c r="E75" s="5"/>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="5"/>
       <c r="E76" s="5"/>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="5"/>
       <c r="E77" s="5"/>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="5"/>
       <c r="E78" s="5"/>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="5"/>
       <c r="E79" s="5"/>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="5"/>
       <c r="E80" s="5"/>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="5"/>
       <c r="E81" s="5"/>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="5"/>
       <c r="E82" s="5"/>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
       <c r="D83" s="5"/>
       <c r="E83" s="5"/>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="5"/>
       <c r="E84" s="5"/>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
       <c r="D85" s="5"/>
       <c r="E85" s="5"/>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
       <c r="D86" s="5"/>
       <c r="E86" s="5"/>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="5"/>
       <c r="E87" s="5"/>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="5"/>
       <c r="E88" s="5"/>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="5"/>
       <c r="E89" s="5"/>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="5"/>
       <c r="E90" s="5"/>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="5"/>
       <c r="E91" s="5"/>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="5"/>
       <c r="E92" s="5"/>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93" s="5"/>
       <c r="E93" s="5"/>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="5"/>
       <c r="E94" s="5"/>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
       <c r="D95" s="5"/>
       <c r="E95" s="5"/>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="5"/>
       <c r="E96" s="5"/>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
       <c r="D97" s="5"/>
       <c r="E97" s="5"/>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="5"/>
       <c r="E98" s="5"/>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
       <c r="D99" s="5"/>
       <c r="E99" s="5"/>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
       <c r="D100" s="5"/>
       <c r="E100" s="5"/>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
       <c r="D101" s="5"/>
       <c r="E101" s="5"/>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
